--- a/src/main/java/AddSheetOfExcel/testExcel.xlsx
+++ b/src/main/java/AddSheetOfExcel/testExcel.xlsx
@@ -5,14 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="functionName_メソード１" r:id="rId5" sheetId="3"/>
-    <sheet name="functionName_メソード２" r:id="rId6" sheetId="4"/>
-    <sheet name="functionName_メソード３" r:id="rId8" sheetId="5"/>
-    <sheet name="functionName_メソード４" r:id="rId9" sheetId="6"/>
+    <sheet name="sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t xml:space="preserve">num</t>
   </si>
@@ -96,54 +93,6 @@
   </si>
   <si>
     <t xml:space="preserve">サンプルsheet</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>public</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>メソード１</t>
-  </si>
-  <si>
-    <t>function1</t>
-  </si>
-  <si>
-    <t>サンプルsheet</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>function2</t>
-  </si>
-  <si>
-    <t>メソード２</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>function3</t>
-  </si>
-  <si>
-    <t>メソード３</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>function4</t>
-  </si>
-  <si>
-    <t>メソード４</t>
   </si>
 </sst>
 </file>
@@ -256,13 +205,13 @@
   </sheetPr>
   <dimension ref="A22:E26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="4" max="5" customWidth="true" hidden="false" style="1" width="20.09" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="20.09"/>
   </cols>
   <sheetData>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -361,263 +310,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A6:M13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>29</v>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M13"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M13"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M13"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
